--- a/document/Cơ sở dữ liệu.xlsx
+++ b/document/Cơ sở dữ liệu.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Admins</t>
   </si>
@@ -28,7 +28,10 @@
     <t>Majors</t>
   </si>
   <si>
-    <t>Semesters</t>
+    <t>Semester_each_years</t>
+  </si>
+  <si>
+    <t>Semester_majors</t>
   </si>
   <si>
     <t>ID</t>
@@ -64,49 +67,61 @@
     <t>address</t>
   </si>
   <si>
+    <t>Entity</t>
+  </si>
+  <si>
     <t>Classes</t>
   </si>
   <si>
     <t>Subjects</t>
   </si>
   <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t>ID_major</t>
   </si>
   <si>
+    <t>number_students</t>
+  </si>
+  <si>
+    <t>ID_teacher</t>
+  </si>
+  <si>
+    <t>Student_Groups</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Subject_details</t>
+  </si>
+  <si>
+    <t>ID_classes</t>
+  </si>
+  <si>
+    <t>ID_subject</t>
+  </si>
+  <si>
+    <t>ID_student</t>
+  </si>
+  <si>
+    <t>ID_students</t>
+  </si>
+  <si>
+    <t>exam_type</t>
+  </si>
+  <si>
+    <t>ID_semester_each_year</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>ID_semester</t>
+  </si>
+  <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>number_students</t>
-  </si>
-  <si>
-    <t>Student_Classes</t>
-  </si>
-  <si>
-    <t>ID_teacher</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>ID_classes</t>
-  </si>
-  <si>
-    <t>ID_subject</t>
-  </si>
-  <si>
-    <t>ID_student</t>
-  </si>
-  <si>
-    <t>ID_students</t>
-  </si>
-  <si>
-    <t>exam_type</t>
-  </si>
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>ID_semester</t>
   </si>
   <si>
     <t>first_exam</t>
@@ -128,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -148,17 +163,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,11 +206,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -180,6 +219,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -397,7 +448,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="9" max="9" width="14.63"/>
-    <col customWidth="1" min="11" max="11" width="15.0"/>
+    <col customWidth="1" min="11" max="11" width="18.88"/>
+    <col customWidth="1" min="13" max="13" width="15.13"/>
+    <col customWidth="1" min="17" max="17" width="14.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -419,258 +472,289 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="I15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>20</v>
+      <c r="I15" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>19</v>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
-      <c r="K17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="K18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="K19" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="9"/>
     </row>
     <row r="20">
       <c r="K20" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="9"/>
     </row>
     <row r="21">
       <c r="I21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="I22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>33</v>
+      <c r="I23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="I25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="26">
-      <c r="I26" s="3" t="s">
-        <v>12</v>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28">
-      <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="I29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="30">
-      <c r="I30" s="3" t="s">
-        <v>34</v>
+      <c r="I30" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31">
-      <c r="I31" s="3" t="s">
-        <v>35</v>
+      <c r="I31" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32">
-      <c r="I32" s="3" t="s">
-        <v>36</v>
+      <c r="I32" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/document/Cơ sở dữ liệu.xlsx
+++ b/document/Cơ sở dữ liệu.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\QuanLyDiemHocVien\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE825B-75E7-4E14-AE63-693380F6F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Admins</t>
   </si>
@@ -137,46 +146,59 @@
   </si>
   <si>
     <t>id_school_year</t>
+  </si>
+  <si>
+    <t>id_current_semester_year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,7 +207,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -201,50 +223,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -434,26 +455,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="9" max="9" width="14.63"/>
-    <col customWidth="1" min="11" max="11" width="18.88"/>
-    <col customWidth="1" min="13" max="13" width="15.13"/>
-    <col customWidth="1" min="17" max="17" width="14.75"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -499,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -522,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -539,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -553,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -564,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -575,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
@@ -583,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
@@ -591,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
@@ -603,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>21</v>
@@ -615,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
@@ -623,17 +649,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I17" s="4" t="s">
         <v>24</v>
       </c>
@@ -647,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
       <c r="K18" s="2" t="s">
         <v>28</v>
       </c>
@@ -658,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
       <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
@@ -670,7 +696,7 @@
       </c>
       <c r="R19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
       <c r="K20" s="2" t="s">
         <v>31</v>
       </c>
@@ -682,7 +708,7 @@
       </c>
       <c r="R20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
@@ -693,7 +719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I22" s="2" t="s">
         <v>7</v>
       </c>
@@ -704,7 +730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I23" s="4" t="s">
         <v>8</v>
       </c>
@@ -712,52 +738,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="9:18" x14ac:dyDescent="0.2">
       <c r="I32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/Cơ sở dữ liệu.xlsx
+++ b/document/Cơ sở dữ liệu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\QuanLyDiemHocVien\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE825B-75E7-4E14-AE63-693380F6F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E629A8-E122-48CF-8838-F6CABD35C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -476,10 +476,10 @@
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -601,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>18</v>
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>21</v>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
@@ -649,17 +649,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I17" s="4" t="s">
         <v>24</v>
       </c>
@@ -673,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K18" s="2" t="s">
         <v>28</v>
       </c>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
@@ -692,11 +692,10 @@
         <v>30</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K20" s="2" t="s">
         <v>31</v>
       </c>
@@ -704,11 +703,11 @@
         <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
@@ -719,7 +718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I22" s="2" t="s">
         <v>7</v>
       </c>
@@ -730,7 +729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I23" s="4" t="s">
         <v>8</v>
       </c>
@@ -738,47 +737,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I30" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="9:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I32" s="4" t="s">
         <v>41</v>
       </c>
